--- a/downloaded_files/EPES435_Tutorial-35459.xlsx
+++ b/downloaded_files/EPES435_Tutorial-35459.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Philopateer Amir Maher Ibraheem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيفن ميشيل ظريف كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>keven meshel zarif kamel</x:t>
   </x:si>
   <x:si>
     <x:t>4191314</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1424,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.8153574074</x:v>
+        <x:v>45921.7996984607</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45915.8153574074</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4872616551</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4872616551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1674,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.6653604977</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES435_Tutorial-35459.xlsx
+++ b/downloaded_files/EPES435_Tutorial-35459.xlsx
@@ -66,6 +66,15 @@
     <x:t>pakiname hatem hafez chaaban</x:t>
   </x:si>
   <x:si>
+    <x:t>1210004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه مجدى كامل محمود عمار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210365</x:t>
   </x:si>
   <x:si>
@@ -163,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Shawky Adbdelgawadd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر حاتم محمد محمود عبد المطلب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Hatem Mohamed Abdelmottaleb</x:t>
   </x:si>
   <x:si>
     <x:t>1210263</x:t>
@@ -921,7 +921,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45927.4220185532</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -953,7 +953,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.4195042477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -985,7 +985,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1017,7 +1017,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1049,7 +1049,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1081,7 +1081,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1113,7 +1113,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.3470935532</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1145,7 +1145,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45913.3470935532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1177,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.734943831</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45912.734943831</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/EPES435_Tutorial-35459.xlsx
+++ b/downloaded_files/EPES435_Tutorial-35459.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,12 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسماعيل محمد محمد اشرف شهدى احمد فريد</x:t>
   </x:si>
   <x:si>
     <x:t>1210131</x:t>
@@ -404,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -712,7 +706,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="33.920625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.490625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -855,9 +849,11 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.5845413194</x:v>
+        <x:v>45906.4145330208</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -880,16 +876,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4145330208</x:v>
+        <x:v>45927.4220185532</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -912,16 +908,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4220185532</x:v>
+        <x:v>45906.4195042477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -944,16 +940,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -976,16 +972,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,16 +1004,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,16 +1036,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,16 +1068,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,16 +1100,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45913.3470935532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,16 +1132,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.3470935532</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,16 +1164,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,16 +1196,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45912.734943831</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,16 +1228,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.734943831</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,16 +1260,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,16 +1292,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,16 +1324,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,16 +1356,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,16 +1388,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45921.7996984607</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,16 +1420,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.7996984607</x:v>
+        <x:v>45915.8153574074</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,16 +1452,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.8153574074</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,16 +1484,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,16 +1516,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4872616551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,16 +1548,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4872616551</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,16 +1580,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,16 +1612,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,16 +1644,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES435_Tutorial-35459.xlsx
+++ b/downloaded_files/EPES435_Tutorial-35459.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>abdelhaleem mohamed yaseen ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمود سيد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1210152</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45912.734943831</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.734943831</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45921.7996984607</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.7996984607</x:v>
+        <x:v>45915.8153574074</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.8153574074</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4872616551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4872616551</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
